--- a/excel/momentum_strategy.xlsx
+++ b/excel/momentum_strategy.xlsx
@@ -52,151 +52,151 @@
     <t>HAL</t>
   </si>
   <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
     <t>ACGL</t>
   </si>
   <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
     <t>LVS</t>
   </si>
   <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>SLB</t>
-  </si>
-  <si>
-    <t>OMC</t>
+    <t>WYNN</t>
   </si>
   <si>
     <t>LW</t>
   </si>
   <si>
-    <t>WYNN</t>
+    <t>ROST</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>TPR</t>
   </si>
   <si>
     <t>MRK</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>RE</t>
   </si>
   <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>IPG</t>
+  </si>
+  <si>
+    <t>HWM</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>CAG</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>HES</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>ORCL</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>HIG</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>TRGP</t>
+  </si>
+  <si>
+    <t>BKR</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>OKE</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
     <t>ULTA</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CPB</t>
-  </si>
-  <si>
-    <t>ROST</t>
-  </si>
-  <si>
-    <t>AIG</t>
-  </si>
-  <si>
-    <t>HCA</t>
-  </si>
-  <si>
-    <t>IPG</t>
-  </si>
-  <si>
-    <t>TPR</t>
-  </si>
-  <si>
-    <t>CAG</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>HWM</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>FCX</t>
-  </si>
-  <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>SJM</t>
-  </si>
-  <si>
-    <t>HES</t>
-  </si>
-  <si>
-    <t>DHI</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>KHC</t>
-  </si>
-  <si>
-    <t>HIG</t>
+    <t>TDG</t>
+  </si>
+  <si>
+    <t>SYK</t>
+  </si>
+  <si>
+    <t>BKNG</t>
   </si>
   <si>
     <t>VLO</t>
   </si>
   <si>
-    <t>RL</t>
+    <t>EMR</t>
   </si>
   <si>
     <t>GL</t>
   </si>
   <si>
-    <t>PCG</t>
-  </si>
-  <si>
-    <t>MTD</t>
-  </si>
-  <si>
-    <t>TDG</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>DGX</t>
-  </si>
-  <si>
-    <t>ORLY</t>
+    <t>TRV</t>
   </si>
   <si>
     <t>BBWI</t>
-  </si>
-  <si>
-    <t>SYK</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>CVX</t>
   </si>
 </sst>
 </file>
@@ -622,31 +622,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="2">
-        <v>40.2</v>
+        <v>40.21</v>
       </c>
       <c r="C2" s="3">
-        <v>0.5575825678718105</v>
+        <v>0.5560603539350408</v>
       </c>
       <c r="D2" s="3">
         <v>0.9839679358717436</v>
       </c>
       <c r="E2" s="3">
-        <v>0.3527029749046684</v>
+        <v>0.3497410283005884</v>
       </c>
       <c r="F2" s="3">
-        <v>0.9418837675350702</v>
+        <v>0.9378757515030059</v>
       </c>
       <c r="G2" s="3">
-        <v>0.3365084702725518</v>
+        <v>0.3266598920459793</v>
       </c>
       <c r="H2" s="3">
-        <v>0.9899799599198397</v>
+        <v>0.9458917835671343</v>
       </c>
       <c r="I2" s="3">
-        <v>0.06136863417252769</v>
+        <v>0.1472182596291014</v>
       </c>
       <c r="J2" s="3">
-        <v>0.9378757515030059</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="K2" s="3">
         <v>0.9634268537074149</v>
@@ -657,34 +657,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>63.905</v>
+        <v>54.5</v>
       </c>
       <c r="C3" s="3">
-        <v>0.4112107623318384</v>
+        <v>0.5659884547860341</v>
       </c>
       <c r="D3" s="3">
-        <v>0.9619238476953907</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="E3" s="3">
-        <v>0.4162916291629164</v>
+        <v>0.5906417728797035</v>
       </c>
       <c r="F3" s="3">
-        <v>0.9579158316633267</v>
+        <v>0.9919839679358717</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3123436196830691</v>
+        <v>0.2840176322714862</v>
       </c>
       <c r="H3" s="3">
-        <v>0.9779559118236473</v>
+        <v>0.8977955911823647</v>
       </c>
       <c r="I3" s="3">
-        <v>0.06371472029744796</v>
+        <v>0.09437751004016071</v>
       </c>
       <c r="J3" s="3">
         <v>0.9418837675350702</v>
       </c>
       <c r="K3" s="3">
-        <v>0.9599198396793587</v>
+        <v>0.9544088176352705</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -692,34 +692,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>51.645</v>
+        <v>151.96</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3938328374357587</v>
+        <v>0.1571539313231121</v>
       </c>
       <c r="D4" s="3">
-        <v>0.9579158316633267</v>
+        <v>0.8376753507014029</v>
       </c>
       <c r="E4" s="3">
-        <v>0.482451093210587</v>
+        <v>0.4483692026153758</v>
       </c>
       <c r="F4" s="3">
-        <v>0.9799599198396794</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2090567808540593</v>
+        <v>0.6645872106333779</v>
       </c>
       <c r="H4" s="3">
-        <v>0.8977955911823647</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>0.08029350104821797</v>
+        <v>0.1860755541679675</v>
       </c>
       <c r="J4" s="3">
-        <v>0.9639278557114228</v>
+        <v>0.995991983967936</v>
       </c>
       <c r="K4" s="3">
-        <v>0.9498997995991985</v>
+        <v>0.9514028056112225</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -727,34 +727,34 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>151.815</v>
+        <v>63.9</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1188705093463278</v>
+        <v>0.4177945418238296</v>
       </c>
       <c r="D5" s="3">
-        <v>0.8236472945891784</v>
+        <v>0.9639278557114228</v>
       </c>
       <c r="E5" s="3">
-        <v>0.4251492881428576</v>
+        <v>0.4263392857142858</v>
       </c>
       <c r="F5" s="3">
         <v>0.9639278557114228</v>
       </c>
       <c r="G5" s="3">
-        <v>0.5753202298104265</v>
+        <v>0.3991679439456972</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="I5" s="3">
-        <v>0.1696765075376885</v>
+        <v>0.06234413965087282</v>
       </c>
       <c r="J5" s="3">
-        <v>0.9979959919839679</v>
+        <v>0.845691382765531</v>
       </c>
       <c r="K5" s="3">
-        <v>0.9463927855711423</v>
+        <v>0.938376753507014</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -762,34 +762,34 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>54.315</v>
+        <v>86.08</v>
       </c>
       <c r="C6" s="3">
-        <v>0.5939450063249385</v>
+        <v>0.1413963010697938</v>
       </c>
       <c r="D6" s="3">
+        <v>0.8276553106212425</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.3748448747578288</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.9438877755511023</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.3366127549626095</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.9539078156312626</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.147965987773522</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.9879759519038076</v>
       </c>
-      <c r="E6" s="3">
-        <v>0.5856577303448587</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.9919839679358717</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.2713500883451931</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.9579158316633267</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.0286104872571038</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.8356713426853708</v>
-      </c>
       <c r="K6" s="3">
-        <v>0.9433867735470942</v>
+        <v>0.9283567134268538</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -797,34 +797,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>86.11</v>
+        <v>248.86</v>
       </c>
       <c r="C7" s="3">
-        <v>0.167694160706104</v>
+        <v>0.1361338123301974</v>
       </c>
       <c r="D7" s="3">
-        <v>0.8637274549098197</v>
+        <v>0.8216432865731462</v>
       </c>
       <c r="E7" s="3">
-        <v>0.356537260151718</v>
+        <v>0.3993233361316801</v>
       </c>
       <c r="F7" s="3">
-        <v>0.9458917835671343</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2953967152440438</v>
+        <v>0.4110117429334599</v>
       </c>
       <c r="H7" s="3">
-        <v>0.9679358717434871</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="I7" s="3">
-        <v>0.1126651939190337</v>
+        <v>0.0868198095903574</v>
       </c>
       <c r="J7" s="3">
-        <v>0.9879759519038076</v>
+        <v>0.9278557114228456</v>
       </c>
       <c r="K7" s="3">
-        <v>0.9413827655310621</v>
+        <v>0.9213426853707414</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -832,34 +832,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>99.55</v>
+        <v>377.34</v>
       </c>
       <c r="C8" s="3">
-        <v>0.5419000871864781</v>
+        <v>0.1575556782624699</v>
       </c>
       <c r="D8" s="3">
+        <v>0.8396793587174349</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.5028077581743597</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.9819639278557115</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.3159842131228419</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.9258517034068136</v>
-      </c>
       <c r="G8" s="3">
-        <v>0.1722927277077606</v>
+        <v>0.3262336566849431</v>
       </c>
       <c r="H8" s="3">
-        <v>0.8496993987975953</v>
+        <v>0.9438877755511023</v>
       </c>
       <c r="I8" s="3">
-        <v>0.09523266423357656</v>
+        <v>0.07345243513882571</v>
       </c>
       <c r="J8" s="3">
-        <v>0.9799599198396794</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="K8" s="3">
-        <v>0.93436873747495</v>
+        <v>0.9133266533066133</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -867,34 +867,34 @@
         <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>93.655</v>
+        <v>51.57</v>
       </c>
       <c r="C9" s="3">
-        <v>0.08415430267062329</v>
+        <v>0.3606860158311347</v>
       </c>
       <c r="D9" s="3">
-        <v>0.7955911823647296</v>
+        <v>0.9559118236472947</v>
       </c>
       <c r="E9" s="3">
-        <v>0.5805502682124937</v>
+        <v>0.4596660062270026</v>
       </c>
       <c r="F9" s="3">
-        <v>0.9899799599198397</v>
+        <v>0.9779559118236473</v>
       </c>
       <c r="G9" s="3">
-        <v>0.2654474923801606</v>
+        <v>0.2134117647058824</v>
       </c>
       <c r="H9" s="3">
-        <v>0.9559118236472947</v>
+        <v>0.7755511022044088</v>
       </c>
       <c r="I9" s="3">
-        <v>0.06494112160429055</v>
+        <v>0.09420751113940162</v>
       </c>
       <c r="J9" s="3">
-        <v>0.9438877755511023</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="K9" s="3">
-        <v>0.9213426853707416</v>
+        <v>0.9123246492985972</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -902,34 +902,34 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>114.84</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>0.4869810646753019</v>
+        <v>0.1066824364281489</v>
       </c>
       <c r="D10" s="3">
-        <v>0.9699398797595191</v>
+        <v>0.7915831663326653</v>
       </c>
       <c r="E10" s="3">
-        <v>0.2447655549141621</v>
+        <v>0.6171793985482197</v>
       </c>
       <c r="F10" s="3">
-        <v>0.8637274549098197</v>
+        <v>0.995991983967936</v>
       </c>
       <c r="G10" s="3">
-        <v>0.2941843700246673</v>
+        <v>0.2802024900807223</v>
       </c>
       <c r="H10" s="3">
-        <v>0.9659318637274549</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="I10" s="3">
-        <v>0.03984137020420753</v>
+        <v>0.1013418079096044</v>
       </c>
       <c r="J10" s="3">
-        <v>0.8817635270541082</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="K10" s="3">
-        <v>0.9203406813627255</v>
+        <v>0.9083166332665331</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -937,34 +937,34 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>377.63</v>
+        <v>99.61</v>
       </c>
       <c r="C11" s="3">
-        <v>0.08677093904841504</v>
+        <v>0.4372575953458306</v>
       </c>
       <c r="D11" s="3">
-        <v>0.7975951903807615</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="E11" s="3">
-        <v>0.4861422915221028</v>
+        <v>0.3398543794447155</v>
       </c>
       <c r="F11" s="3">
-        <v>0.9819639278557115</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="G11" s="3">
-        <v>0.2389070368858037</v>
+        <v>0.2065953926250021</v>
       </c>
       <c r="H11" s="3">
-        <v>0.9378757515030059</v>
+        <v>0.749498997995992</v>
       </c>
       <c r="I11" s="3">
-        <v>0.05328781786096548</v>
+        <v>0.1440220512231538</v>
       </c>
       <c r="J11" s="3">
-        <v>0.9218436873747495</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="K11" s="3">
-        <v>0.9098196392785571</v>
+        <v>0.9068136272545091</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -972,34 +972,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="2">
-        <v>248.63</v>
+        <v>121.57</v>
       </c>
       <c r="C12" s="3">
-        <v>0.1191268314244183</v>
+        <v>0.1735518840831536</v>
       </c>
       <c r="D12" s="3">
-        <v>0.8256513026052105</v>
+        <v>0.8517034068136273</v>
       </c>
       <c r="E12" s="3">
-        <v>0.4017753799051638</v>
+        <v>0.598066073203178</v>
       </c>
       <c r="F12" s="3">
-        <v>0.9519038076152304</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="G12" s="3">
-        <v>0.3560247953659934</v>
+        <v>0.4032645494767047</v>
       </c>
       <c r="H12" s="3">
-        <v>0.9939879759519039</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="I12" s="3">
-        <v>0.03315130928322652</v>
+        <v>0.05383148404993055</v>
       </c>
       <c r="J12" s="3">
-        <v>0.8517034068136273</v>
+        <v>0.7815631262525051</v>
       </c>
       <c r="K12" s="3">
-        <v>0.905811623246493</v>
+        <v>0.902304609218437</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1007,34 +1007,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <v>351.11</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3">
-        <v>0.3001186347804345</v>
+        <v>-0.01160092807424595</v>
       </c>
       <c r="D13" s="3">
-        <v>0.935871743486974</v>
+        <v>0.6112224448897795</v>
       </c>
       <c r="E13" s="3">
-        <v>0.2470963111624487</v>
+        <v>0.5217546617132243</v>
       </c>
       <c r="F13" s="3">
-        <v>0.8657314629258518</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="G13" s="3">
-        <v>0.2563148050093964</v>
+        <v>0.641112566453502</v>
       </c>
       <c r="H13" s="3">
-        <v>0.9519038076152304</v>
+        <v>0.9979959919839679</v>
       </c>
       <c r="I13" s="3">
-        <v>0.03493753592062676</v>
+        <v>0.2067988668555241</v>
       </c>
       <c r="J13" s="3">
-        <v>0.8617234468937877</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>0.9038076152304609</v>
+        <v>0.8987975951903807</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1042,31 +1042,31 @@
         <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>486.34</v>
+        <v>42.28</v>
       </c>
       <c r="C14" s="3">
-        <v>0.2178136441754464</v>
+        <v>0.01834367413002425</v>
       </c>
       <c r="D14" s="3">
-        <v>0.8957915831663327</v>
+        <v>0.6753507014028056</v>
       </c>
       <c r="E14" s="3">
-        <v>0.2918857505218377</v>
+        <v>0.454855770388799</v>
       </c>
       <c r="F14" s="3">
-        <v>0.9098196392785571</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="G14" s="3">
-        <v>0.2347281497007501</v>
+        <v>0.4642576373087859</v>
       </c>
       <c r="H14" s="3">
-        <v>0.9298597194388778</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0347498518581224</v>
+        <v>0.09675745784695212</v>
       </c>
       <c r="J14" s="3">
-        <v>0.8577154308617234</v>
+        <v>0.9478957915831664</v>
       </c>
       <c r="K14" s="3">
         <v>0.8982965931863728</v>
@@ -1077,31 +1077,31 @@
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>212.505</v>
+        <v>41.05</v>
       </c>
       <c r="C15" s="3">
-        <v>-0.03792180973389014</v>
+        <v>0.07562100408762173</v>
       </c>
       <c r="D15" s="3">
-        <v>0.6072144288577155</v>
+        <v>0.7595190380761524</v>
       </c>
       <c r="E15" s="3">
-        <v>0.4886710239651417</v>
+        <v>0.3022816100705548</v>
       </c>
       <c r="F15" s="3">
-        <v>0.9859719438877755</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="G15" s="3">
-        <v>0.5516614942093709</v>
+        <v>0.3147359318451142</v>
       </c>
       <c r="H15" s="3">
-        <v>0.9979959919839679</v>
+        <v>0.935871743486974</v>
       </c>
       <c r="I15" s="3">
-        <v>0.1074554294975689</v>
+        <v>0.1262002743484223</v>
       </c>
       <c r="J15" s="3">
-        <v>0.9839679358717436</v>
+        <v>0.9699398797595191</v>
       </c>
       <c r="K15" s="3">
         <v>0.8937875751503006</v>
@@ -1112,34 +1112,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>56.98</v>
+        <v>114.84</v>
       </c>
       <c r="C16" s="3">
-        <v>0.306857861166721</v>
+        <v>0.4761096208053821</v>
       </c>
       <c r="D16" s="3">
+        <v>0.9719438877755512</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.2529061553215235</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.8677354709418837</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.3196450609835977</v>
+      </c>
+      <c r="H16" s="3">
         <v>0.9418837675350702</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.1894420597221105</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.7815631262525051</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.1874771293258626</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.8737474949899799</v>
-      </c>
       <c r="I16" s="3">
-        <v>0.06026353611298396</v>
+        <v>0.05005787936586903</v>
       </c>
       <c r="J16" s="3">
-        <v>0.9338677354709419</v>
+        <v>0.7715430861723448</v>
       </c>
       <c r="K16" s="3">
-        <v>0.8827655310621243</v>
+        <v>0.8882765531062125</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1147,34 +1147,34 @@
         <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>121.7</v>
+        <v>351.4</v>
       </c>
       <c r="C17" s="3">
-        <v>0.0942779613897331</v>
+        <v>0.2878573813395549</v>
       </c>
       <c r="D17" s="3">
-        <v>0.8036072144288577</v>
+        <v>0.9298597194388778</v>
       </c>
       <c r="E17" s="3">
-        <v>0.613742984170599</v>
+        <v>0.2438585809959364</v>
       </c>
       <c r="F17" s="3">
-        <v>0.995991983967936</v>
+        <v>0.841683366733467</v>
       </c>
       <c r="G17" s="3">
-        <v>0.3216350769093386</v>
+        <v>0.3356970940035791</v>
       </c>
       <c r="H17" s="3">
-        <v>0.9799599198396794</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="I17" s="3">
-        <v>0.008861622358554921</v>
+        <v>0.05541372578465231</v>
       </c>
       <c r="J17" s="3">
-        <v>0.7294589178356713</v>
+        <v>0.7975951903807615</v>
       </c>
       <c r="K17" s="3">
-        <v>0.8772545090180361</v>
+        <v>0.8797595190380761</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1182,34 +1182,34 @@
         <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>64.55</v>
+        <v>17.11</v>
       </c>
       <c r="C18" s="3">
-        <v>0.1163943503520044</v>
+        <v>0.03126337297258197</v>
       </c>
       <c r="D18" s="3">
-        <v>0.8196392785571143</v>
+        <v>0.7094188376753507</v>
       </c>
       <c r="E18" s="3">
-        <v>0.255828300924223</v>
+        <v>0.3337906626858225</v>
       </c>
       <c r="F18" s="3">
-        <v>0.8737474949899799</v>
+        <v>0.9278557114228456</v>
       </c>
       <c r="G18" s="3">
-        <v>0.2442767384315176</v>
+        <v>0.3833416878223888</v>
       </c>
       <c r="H18" s="3">
-        <v>0.9418837675350702</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="I18" s="3">
-        <v>0.03740268734829355</v>
+        <v>0.07325212329540465</v>
       </c>
       <c r="J18" s="3">
-        <v>0.8677354709418837</v>
+        <v>0.8837675350701403</v>
       </c>
       <c r="K18" s="3">
-        <v>0.875751503006012</v>
+        <v>0.874248496993988</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1217,34 +1217,34 @@
         <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>254.76</v>
+        <v>35.7</v>
       </c>
       <c r="C19" s="3">
-        <v>-0.02354760020145419</v>
+        <v>-0.01445466491458591</v>
       </c>
       <c r="D19" s="3">
-        <v>0.6452905811623246</v>
+        <v>0.6052104208416833</v>
       </c>
       <c r="E19" s="3">
-        <v>0.4576054041462847</v>
+        <v>0.3043192330456768</v>
       </c>
       <c r="F19" s="3">
-        <v>0.9719438877755512</v>
+        <v>0.9118236472945892</v>
       </c>
       <c r="G19" s="3">
-        <v>0.2386631148096701</v>
+        <v>0.3601917222618045</v>
       </c>
       <c r="H19" s="3">
-        <v>0.9338677354709419</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="I19" s="3">
-        <v>0.0659818489227324</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="J19" s="3">
-        <v>0.9458917835671343</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="K19" s="3">
-        <v>0.874248496993988</v>
+        <v>0.8607214428857716</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1252,34 +1252,34 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>35.705</v>
+        <v>40.46</v>
       </c>
       <c r="C20" s="3">
-        <v>-0.01959420160794356</v>
+        <v>0.1930211506196575</v>
       </c>
       <c r="D20" s="3">
-        <v>0.653306613226453</v>
+        <v>0.8737474949899799</v>
       </c>
       <c r="E20" s="3">
-        <v>0.3125638025975574</v>
+        <v>0.2450878116181525</v>
       </c>
       <c r="F20" s="3">
-        <v>0.9218436873747495</v>
+        <v>0.843687374749499</v>
       </c>
       <c r="G20" s="3">
-        <v>0.3043413872002014</v>
+        <v>0.2448005119495927</v>
       </c>
       <c r="H20" s="3">
-        <v>0.9699398797595191</v>
+        <v>0.845691382765531</v>
       </c>
       <c r="I20" s="3">
-        <v>0.06660611565243713</v>
+        <v>0.06839186691312404</v>
       </c>
       <c r="J20" s="3">
-        <v>0.9478957915831664</v>
+        <v>0.8677354709418837</v>
       </c>
       <c r="K20" s="3">
-        <v>0.873246492985972</v>
+        <v>0.8577154308617234</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1287,34 +1287,34 @@
         <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>41.035</v>
+        <v>254.52</v>
       </c>
       <c r="C21" s="3">
-        <v>-0.008140638265994093</v>
+        <v>0.01952813776688412</v>
       </c>
       <c r="D21" s="3">
-        <v>0.6673346693386774</v>
+        <v>0.6793587174348698</v>
       </c>
       <c r="E21" s="3">
-        <v>0.2890370192479319</v>
+        <v>0.4645295230554647</v>
       </c>
       <c r="F21" s="3">
-        <v>0.905811623246493</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="G21" s="3">
-        <v>0.2569660030569716</v>
+        <v>0.2726159076988464</v>
       </c>
       <c r="H21" s="3">
-        <v>0.9539078156312626</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="I21" s="3">
-        <v>0.07797984622774901</v>
+        <v>0.07138933333670106</v>
       </c>
       <c r="J21" s="3">
-        <v>0.9619238476953907</v>
+        <v>0.8717434869739479</v>
       </c>
       <c r="K21" s="3">
-        <v>0.8722444889779559</v>
+        <v>0.8547094188376754</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1322,34 +1322,34 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>40.95</v>
+        <v>73.84</v>
       </c>
       <c r="C22" s="3">
-        <v>0.2137241624331572</v>
+        <v>0.2188036445266077</v>
       </c>
       <c r="D22" s="3">
-        <v>0.8897795591182366</v>
+        <v>0.8857715430861723</v>
       </c>
       <c r="E22" s="3">
-        <v>0.1848158599919372</v>
+        <v>0.3265854258853036</v>
       </c>
       <c r="F22" s="3">
-        <v>0.7755511022044088</v>
+        <v>0.9218436873747495</v>
       </c>
       <c r="G22" s="3">
-        <v>0.193380129041504</v>
+        <v>0.2874384090441502</v>
       </c>
       <c r="H22" s="3">
-        <v>0.8857715430861723</v>
+        <v>0.9038076152304609</v>
       </c>
       <c r="I22" s="3">
-        <v>0.04496732026143779</v>
+        <v>0.03707865168539337</v>
       </c>
       <c r="J22" s="3">
-        <v>0.905811623246493</v>
+        <v>0.691382765531062</v>
       </c>
       <c r="K22" s="3">
-        <v>0.8642284569138277</v>
+        <v>0.8507014028056112</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1357,34 +1357,34 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>71.905</v>
+        <v>40.96</v>
       </c>
       <c r="C23" s="3">
-        <v>-0.08449628032469614</v>
+        <v>0.2223107522164827</v>
       </c>
       <c r="D23" s="3">
-        <v>0.531062124248497</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="E23" s="3">
-        <v>0.4635418163602996</v>
+        <v>0.1855316513217116</v>
       </c>
       <c r="F23" s="3">
-        <v>0.9739478957915831</v>
+        <v>0.751503006012024</v>
       </c>
       <c r="G23" s="3">
-        <v>0.3444677669086293</v>
+        <v>0.2583060178116658</v>
       </c>
       <c r="H23" s="3">
-        <v>0.9919839679358717</v>
+        <v>0.8757515030060121</v>
       </c>
       <c r="I23" s="3">
-        <v>0.07100094796128231</v>
+        <v>0.0714098875228879</v>
       </c>
       <c r="J23" s="3">
-        <v>0.9539078156312626</v>
+        <v>0.8737474949899799</v>
       </c>
       <c r="K23" s="3">
-        <v>0.8627254509018036</v>
+        <v>0.8486973947895792</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1392,34 +1392,34 @@
         <v>33</v>
       </c>
       <c r="B24" s="2">
-        <v>82.715</v>
+        <v>82.72</v>
       </c>
       <c r="C24" s="3">
-        <v>0.09261855893569604</v>
+        <v>0.1321131729962541</v>
       </c>
       <c r="D24" s="3">
-        <v>0.8016032064128257</v>
+        <v>0.8156312625250501</v>
       </c>
       <c r="E24" s="3">
-        <v>0.413112421722508</v>
+        <v>0.4028470740666623</v>
       </c>
       <c r="F24" s="3">
-        <v>0.9559118236472947</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="G24" s="3">
-        <v>0.2307621874451577</v>
+        <v>0.2859996735252279</v>
       </c>
       <c r="H24" s="3">
-        <v>0.9218436873747495</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="I24" s="3">
-        <v>0.01497608859803701</v>
+        <v>0.0418136020151132</v>
       </c>
       <c r="J24" s="3">
-        <v>0.7595190380761524</v>
+        <v>0.7154308617234468</v>
       </c>
       <c r="K24" s="3">
-        <v>0.8597194388777556</v>
+        <v>0.845691382765531</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1427,34 +1427,34 @@
         <v>34</v>
       </c>
       <c r="B25" s="2">
-        <v>40.405</v>
+        <v>88.08</v>
       </c>
       <c r="C25" s="3">
-        <v>0.1834177055180011</v>
+        <v>0.2924393472066114</v>
       </c>
       <c r="D25" s="3">
-        <v>0.8797595190380761</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="E25" s="3">
-        <v>0.2664220999030535</v>
+        <v>0.4320414394552781</v>
       </c>
       <c r="F25" s="3">
-        <v>0.8837675350701403</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="G25" s="3">
-        <v>0.1810538773229846</v>
+        <v>0.3814043650370445</v>
       </c>
       <c r="H25" s="3">
-        <v>0.8657314629258518</v>
+        <v>0.9739478957915831</v>
       </c>
       <c r="I25" s="3">
-        <v>0.02023871302542823</v>
+        <v>0.01162426106521464</v>
       </c>
       <c r="J25" s="3">
-        <v>0.7895791583166333</v>
+        <v>0.5050100200400801</v>
       </c>
       <c r="K25" s="3">
-        <v>0.8547094188376754</v>
+        <v>0.844188376753507</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1462,34 +1462,34 @@
         <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>73.855</v>
+        <v>93.58</v>
       </c>
       <c r="C26" s="3">
-        <v>0.2210387538915273</v>
+        <v>-0.00579334142892507</v>
       </c>
       <c r="D26" s="3">
-        <v>0.8977955911823647</v>
+        <v>0.6252505010020041</v>
       </c>
       <c r="E26" s="3">
-        <v>0.3037476819730898</v>
+        <v>0.2932881138557897</v>
       </c>
       <c r="F26" s="3">
-        <v>0.9158316633266533</v>
+        <v>0.9038076152304609</v>
       </c>
       <c r="G26" s="3">
-        <v>0.2052742125260862</v>
+        <v>0.3051421876961271</v>
       </c>
       <c r="H26" s="3">
-        <v>0.8957915831663327</v>
+        <v>0.9238476953907816</v>
       </c>
       <c r="I26" s="3">
-        <v>0.006475225225225145</v>
+        <v>0.08473397473049737</v>
       </c>
       <c r="J26" s="3">
-        <v>0.7074148296593187</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="K26" s="3">
-        <v>0.8542084168336673</v>
+        <v>0.842685370741483</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1497,34 +1497,34 @@
         <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>88.05</v>
+        <v>71.94</v>
       </c>
       <c r="C27" s="3">
-        <v>0.2436603742425405</v>
+        <v>-0.0946445089069412</v>
       </c>
       <c r="D27" s="3">
-        <v>0.9118236472945892</v>
+        <v>0.4789579158316634</v>
       </c>
       <c r="E27" s="3">
-        <v>0.4042945076299729</v>
+        <v>0.4541470681573325</v>
       </c>
       <c r="F27" s="3">
-        <v>0.9539078156312626</v>
+        <v>0.9739478957915831</v>
       </c>
       <c r="G27" s="3">
-        <v>0.3225658856569771</v>
+        <v>0.4172493070371923</v>
       </c>
       <c r="H27" s="3">
-        <v>0.9819639278557115</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="I27" s="3">
-        <v>-0.01611688783503318</v>
+        <v>0.07644333784220558</v>
       </c>
       <c r="J27" s="3">
-        <v>0.5591182364729459</v>
+        <v>0.901803607214429</v>
       </c>
       <c r="K27" s="3">
-        <v>0.8517034068136273</v>
+        <v>0.8356713426853708</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1532,34 +1532,34 @@
         <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>42.305</v>
+        <v>42.59</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.0358226726879346</v>
+        <v>0.1883337379080973</v>
       </c>
       <c r="D28" s="3">
-        <v>0.6092184368737475</v>
+        <v>0.8697394789579158</v>
       </c>
       <c r="E28" s="3">
-        <v>0.4694600177043378</v>
+        <v>0.1417740793960582</v>
       </c>
       <c r="F28" s="3">
-        <v>0.9759519038076152</v>
+        <v>0.6833667334669339</v>
       </c>
       <c r="G28" s="3">
-        <v>0.3092041918194455</v>
+        <v>0.3028090386009563</v>
       </c>
       <c r="H28" s="3">
-        <v>0.9759519038076152</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="I28" s="3">
-        <v>0.02521873391662388</v>
+        <v>0.06768613687641012</v>
       </c>
       <c r="J28" s="3">
-        <v>0.8296593186372746</v>
+        <v>0.8637274549098197</v>
       </c>
       <c r="K28" s="3">
-        <v>0.8476953907815632</v>
+        <v>0.8336673346693387</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1567,34 +1567,34 @@
         <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>116.775</v>
+        <v>143.7</v>
       </c>
       <c r="C29" s="3">
-        <v>0.7400757195310081</v>
+        <v>0.6801967128009474</v>
       </c>
       <c r="D29" s="3">
         <v>0.995991983967936</v>
       </c>
       <c r="E29" s="3">
-        <v>0.4333752376470004</v>
+        <v>0.4466520625614094</v>
       </c>
       <c r="F29" s="3">
-        <v>0.9679358717434871</v>
+        <v>0.9699398797595191</v>
       </c>
       <c r="G29" s="3">
-        <v>0.08249322330994313</v>
+        <v>0.1240349491172765</v>
       </c>
       <c r="H29" s="3">
-        <v>0.5831663326653307</v>
+        <v>0.4889779559118236</v>
       </c>
       <c r="I29" s="3">
-        <v>0.02916851934192977</v>
+        <v>0.06923859348620143</v>
       </c>
       <c r="J29" s="3">
-        <v>0.8376753507014029</v>
+        <v>0.8697394789579158</v>
       </c>
       <c r="K29" s="3">
-        <v>0.8461923847695392</v>
+        <v>0.8311623246492986</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1602,34 +1602,34 @@
         <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>110.44</v>
+        <v>64.55</v>
       </c>
       <c r="C30" s="3">
-        <v>0.7010082067688317</v>
+        <v>0.08703889258439057</v>
       </c>
       <c r="D30" s="3">
-        <v>0.9939879759519039</v>
+        <v>0.7695390781563127</v>
       </c>
       <c r="E30" s="3">
-        <v>0.3106809516208591</v>
+        <v>0.2601268911664225</v>
       </c>
       <c r="F30" s="3">
-        <v>0.9198396793587175</v>
+        <v>0.8797595190380761</v>
       </c>
       <c r="G30" s="3">
-        <v>0.1106658910345333</v>
+        <v>0.305102942395526</v>
       </c>
       <c r="H30" s="3">
-        <v>0.6733466933867736</v>
+        <v>0.9218436873747495</v>
       </c>
       <c r="I30" s="3">
-        <v>0.02208703790360312</v>
+        <v>0.04589121111123706</v>
       </c>
       <c r="J30" s="3">
-        <v>0.7935871743486974</v>
+        <v>0.7434869739478959</v>
       </c>
       <c r="K30" s="3">
-        <v>0.8451903807615231</v>
+        <v>0.8286573146292586</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1637,34 +1637,34 @@
         <v>40</v>
       </c>
       <c r="B31" s="2">
-        <v>17.125</v>
+        <v>85.34</v>
       </c>
       <c r="C31" s="3">
-        <v>0.005568834090311725</v>
+        <v>-0.007842514979076287</v>
       </c>
       <c r="D31" s="3">
-        <v>0.7014028056112225</v>
+        <v>0.6192384769539079</v>
       </c>
       <c r="E31" s="3">
-        <v>0.303331616685814</v>
+        <v>0.2040284210304382</v>
       </c>
       <c r="F31" s="3">
-        <v>0.9138276553106214</v>
+        <v>0.7875751503006012</v>
       </c>
       <c r="G31" s="3">
-        <v>0.279657720731233</v>
+        <v>0.3604102511978631</v>
       </c>
       <c r="H31" s="3">
-        <v>0.9639278557114228</v>
+        <v>0.9679358717434871</v>
       </c>
       <c r="I31" s="3">
-        <v>0.0223042551472552</v>
+        <v>0.08733181010408719</v>
       </c>
       <c r="J31" s="3">
-        <v>0.7975951903807615</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="K31" s="3">
-        <v>0.844188376753507</v>
+        <v>0.8266533066132264</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1672,34 +1672,34 @@
         <v>41</v>
       </c>
       <c r="B32" s="2">
-        <v>229.11</v>
+        <v>115.97</v>
       </c>
       <c r="C32" s="3">
-        <v>0.1709684059566654</v>
+        <v>0.01201202511486255</v>
       </c>
       <c r="D32" s="3">
-        <v>0.8677354709418837</v>
+        <v>0.6653306613226454</v>
       </c>
       <c r="E32" s="3">
-        <v>0.1669623743894666</v>
+        <v>0.2649625975963856</v>
       </c>
       <c r="F32" s="3">
-        <v>0.7454909819639279</v>
+        <v>0.8857715430861723</v>
       </c>
       <c r="G32" s="3">
-        <v>0.1772493250405609</v>
+        <v>0.2871925616541595</v>
       </c>
       <c r="H32" s="3">
-        <v>0.8557114228456913</v>
+        <v>0.901803607214429</v>
       </c>
       <c r="I32" s="3">
-        <v>0.04172636929283668</v>
+        <v>0.06418024535700106</v>
       </c>
       <c r="J32" s="3">
-        <v>0.8937875751503006</v>
+        <v>0.8476953907815631</v>
       </c>
       <c r="K32" s="3">
-        <v>0.8406813627254509</v>
+        <v>0.8251503006012024</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1707,34 +1707,34 @@
         <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>162.67</v>
+        <v>588.4299999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>0.1712601462917809</v>
+        <v>-0.02711634394280182</v>
       </c>
       <c r="D33" s="3">
-        <v>0.8697394789579158</v>
+        <v>0.5851703406813628</v>
       </c>
       <c r="E33" s="3">
-        <v>0.2385009934271409</v>
+        <v>0.2001342025908441</v>
       </c>
       <c r="F33" s="3">
-        <v>0.8476953907815631</v>
+        <v>0.7775551102204409</v>
       </c>
       <c r="G33" s="3">
-        <v>0.1439854100411473</v>
+        <v>0.288524287904365</v>
       </c>
       <c r="H33" s="3">
-        <v>0.7735470941883767</v>
+        <v>0.905811623246493</v>
       </c>
       <c r="I33" s="3">
-        <v>0.03486560186988696</v>
+        <v>0.1443388065878193</v>
       </c>
       <c r="J33" s="3">
-        <v>0.8597194388777555</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="K33" s="3">
-        <v>0.8376753507014028</v>
+        <v>0.8126252505010021</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1742,34 +1742,34 @@
         <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>143.51</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C34" s="3">
-        <v>0.7639636682124427</v>
+        <v>0.1137083523891798</v>
       </c>
       <c r="D34" s="3">
-        <v>0.9979959919839679</v>
+        <v>0.7995991983967936</v>
       </c>
       <c r="E34" s="3">
-        <v>0.4420826303718295</v>
+        <v>0.2064257077238769</v>
       </c>
       <c r="F34" s="3">
-        <v>0.9699398797595191</v>
+        <v>0.7975951903807615</v>
       </c>
       <c r="G34" s="3">
-        <v>0.1123876589604966</v>
+        <v>0.2389861356038134</v>
       </c>
       <c r="H34" s="3">
-        <v>0.6833667334669339</v>
+        <v>0.8316633266533066</v>
       </c>
       <c r="I34" s="3">
-        <v>0.004147690595833753</v>
+        <v>0.0582081545064379</v>
       </c>
       <c r="J34" s="3">
-        <v>0.6973947895791583</v>
+        <v>0.8176352705410822</v>
       </c>
       <c r="K34" s="3">
-        <v>0.8371743486973948</v>
+        <v>0.811623246492986</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1777,34 +1777,34 @@
         <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>93.55500000000001</v>
+        <v>116.82</v>
       </c>
       <c r="C35" s="3">
-        <v>-0.0937881637797997</v>
+        <v>0.6898499068427204</v>
       </c>
       <c r="D35" s="3">
-        <v>0.5150300601202406</v>
+        <v>0.9979959919839679</v>
       </c>
       <c r="E35" s="3">
-        <v>0.2808398513110189</v>
+        <v>0.4175670559454814</v>
       </c>
       <c r="F35" s="3">
-        <v>0.8957915831663327</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="G35" s="3">
-        <v>0.2715173771286656</v>
+        <v>0.1002569338225874</v>
       </c>
       <c r="H35" s="3">
-        <v>0.9599198396793588</v>
+        <v>0.406813627254509</v>
       </c>
       <c r="I35" s="3">
-        <v>0.08958923512747874</v>
+        <v>0.07174311926605492</v>
       </c>
       <c r="J35" s="3">
-        <v>0.9719438877755512</v>
+        <v>0.8757515030060121</v>
       </c>
       <c r="K35" s="3">
-        <v>0.8356713426853708</v>
+        <v>0.8106212424849699</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1812,34 +1812,34 @@
         <v>45</v>
       </c>
       <c r="B36" s="2">
-        <v>85.735</v>
+        <v>228.86</v>
       </c>
       <c r="C36" s="3">
-        <v>-0.007947247409554992</v>
+        <v>0.156008633443836</v>
       </c>
       <c r="D36" s="3">
-        <v>0.6693386773547094</v>
+        <v>0.8356713426853708</v>
       </c>
       <c r="E36" s="3">
-        <v>0.1824203503644313</v>
+        <v>0.1855432721222239</v>
       </c>
       <c r="F36" s="3">
-        <v>0.7715430861723448</v>
+        <v>0.7535070140280561</v>
       </c>
       <c r="G36" s="3">
-        <v>0.2716593865386008</v>
+        <v>0.2439868893805068</v>
       </c>
       <c r="H36" s="3">
-        <v>0.9619238476953907</v>
+        <v>0.843687374749499</v>
       </c>
       <c r="I36" s="3">
-        <v>0.06143774392546897</v>
+        <v>0.05578801201289863</v>
       </c>
       <c r="J36" s="3">
-        <v>0.939879759519038</v>
+        <v>0.8016032064128257</v>
       </c>
       <c r="K36" s="3">
-        <v>0.8356713426853708</v>
+        <v>0.8086172344689379</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1847,34 +1847,34 @@
         <v>46</v>
       </c>
       <c r="B37" s="2">
-        <v>42.595</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C37" s="3">
-        <v>0.1716878485225621</v>
+        <v>0.3354500795606714</v>
       </c>
       <c r="D37" s="3">
-        <v>0.8737474949899799</v>
+        <v>0.9478957915831664</v>
       </c>
       <c r="E37" s="3">
-        <v>0.1068322049875738</v>
+        <v>0.2348181557120896</v>
       </c>
       <c r="F37" s="3">
-        <v>0.6352705410821643</v>
+        <v>0.8336673346693386</v>
       </c>
       <c r="G37" s="3">
-        <v>0.232182838880094</v>
+        <v>0.1522462496827777</v>
       </c>
       <c r="H37" s="3">
-        <v>0.9238476953907816</v>
+        <v>0.5891783567134269</v>
       </c>
       <c r="I37" s="3">
-        <v>0.0431600201918223</v>
+        <v>0.06606387633075683</v>
       </c>
       <c r="J37" s="3">
-        <v>0.8997995991983969</v>
+        <v>0.8557114228456913</v>
       </c>
       <c r="K37" s="3">
-        <v>0.8331663326653307</v>
+        <v>0.8066132264529058</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1882,34 +1882,34 @@
         <v>47</v>
       </c>
       <c r="B38" s="2">
-        <v>78.895</v>
+        <v>29.96</v>
       </c>
       <c r="C38" s="3">
-        <v>0.1143076055686467</v>
+        <v>0.1771824632818086</v>
       </c>
       <c r="D38" s="3">
-        <v>0.8176352705410822</v>
+        <v>0.8617234468937877</v>
       </c>
       <c r="E38" s="3">
-        <v>0.1992612749696994</v>
+        <v>0.06743814844373497</v>
       </c>
       <c r="F38" s="3">
-        <v>0.7915831663326653</v>
+        <v>0.5230460921843687</v>
       </c>
       <c r="G38" s="3">
-        <v>0.1787482757671497</v>
+        <v>0.3182964230869083</v>
       </c>
       <c r="H38" s="3">
-        <v>0.8597194388777555</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="I38" s="3">
-        <v>0.03213711837171918</v>
+        <v>0.0746054519368724</v>
       </c>
       <c r="J38" s="3">
-        <v>0.845691382765531</v>
+        <v>0.8917835671342685</v>
       </c>
       <c r="K38" s="3">
-        <v>0.8286573146292585</v>
+        <v>0.8041082164328657</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1917,34 +1917,34 @@
         <v>48</v>
       </c>
       <c r="B39" s="2">
-        <v>127.36</v>
+        <v>106.69</v>
       </c>
       <c r="C39" s="3">
-        <v>0.6768308836775567</v>
+        <v>0.02129899966495952</v>
       </c>
       <c r="D39" s="3">
-        <v>0.9919839679358717</v>
+        <v>0.685370741482966</v>
       </c>
       <c r="E39" s="3">
-        <v>0.2413668666150861</v>
+        <v>0.3697926630263828</v>
       </c>
       <c r="F39" s="3">
-        <v>0.8496993987975953</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="G39" s="3">
-        <v>0.07949772954996059</v>
+        <v>0.2401170724449682</v>
       </c>
       <c r="H39" s="3">
-        <v>0.561122244488978</v>
+        <v>0.8336673346693386</v>
       </c>
       <c r="I39" s="3">
-        <v>0.04654431216931232</v>
+        <v>0.04731520565426517</v>
       </c>
       <c r="J39" s="3">
-        <v>0.9078156312625251</v>
+        <v>0.751503006012024</v>
       </c>
       <c r="K39" s="3">
-        <v>0.8276553106212425</v>
+        <v>0.8031062124248497</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1952,34 +1952,34 @@
         <v>49</v>
       </c>
       <c r="B40" s="2">
-        <v>115.93</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>-0.0344513429612634</v>
+        <v>0.1329771753689364</v>
       </c>
       <c r="D40" s="3">
-        <v>0.6112224448897795</v>
+        <v>0.8196392785571143</v>
       </c>
       <c r="E40" s="3">
-        <v>0.2813724096316754</v>
+        <v>0.2155862368685826</v>
       </c>
       <c r="F40" s="3">
-        <v>0.8977955911823647</v>
+        <v>0.8096192384769538</v>
       </c>
       <c r="G40" s="3">
-        <v>0.226382546495606</v>
+        <v>0.240212160674264</v>
       </c>
       <c r="H40" s="3">
-        <v>0.9158316633266533</v>
+        <v>0.8356713426853708</v>
       </c>
       <c r="I40" s="3">
-        <v>0.0386862062362916</v>
+        <v>0.04259984338292866</v>
       </c>
       <c r="J40" s="3">
-        <v>0.8777555110220442</v>
+        <v>0.7254509018036072</v>
       </c>
       <c r="K40" s="3">
-        <v>0.8256513026052105</v>
+        <v>0.7975951903807615</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1987,34 +1987,34 @@
         <v>50</v>
       </c>
       <c r="B41" s="2">
-        <v>123.16</v>
+        <v>110.53</v>
       </c>
       <c r="C41" s="3">
-        <v>0.245755579417825</v>
+        <v>0.6683320302240845</v>
       </c>
       <c r="D41" s="3">
-        <v>0.9138276553106214</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="E41" s="3">
-        <v>0.2367554796839322</v>
+        <v>0.3090806589343305</v>
       </c>
       <c r="F41" s="3">
-        <v>0.841683366733467</v>
+        <v>0.9158316633266533</v>
       </c>
       <c r="G41" s="3">
-        <v>0.1324929071966396</v>
+        <v>0.1028384645471308</v>
       </c>
       <c r="H41" s="3">
-        <v>0.7434869739478959</v>
+        <v>0.4148296593186373</v>
       </c>
       <c r="I41" s="3">
-        <v>0.01353801421095158</v>
+        <v>0.06637723106608773</v>
       </c>
       <c r="J41" s="3">
-        <v>0.749498997995992</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="K41" s="3">
-        <v>0.8121242484969941</v>
+        <v>0.7955911823647295</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2022,34 +2022,34 @@
         <v>51</v>
       </c>
       <c r="B42" s="2">
-        <v>15.875</v>
+        <v>162.59</v>
       </c>
       <c r="C42" s="3">
-        <v>0.3204047217537944</v>
+        <v>0.1752723676905996</v>
       </c>
       <c r="D42" s="3">
-        <v>0.9438877755511023</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="E42" s="3">
-        <v>0.5914634146341464</v>
+        <v>0.2498673952114681</v>
       </c>
       <c r="F42" s="3">
-        <v>0.9939879759519039</v>
+        <v>0.8537074148296594</v>
       </c>
       <c r="G42" s="3">
-        <v>0.0616949152542372</v>
+        <v>0.1980791237715433</v>
       </c>
       <c r="H42" s="3">
-        <v>0.4889779559118236</v>
+        <v>0.7274549098196392</v>
       </c>
       <c r="I42" s="3">
-        <v>0.0221932114882506</v>
+        <v>0.04438591983556006</v>
       </c>
       <c r="J42" s="3">
-        <v>0.7955911823647296</v>
+        <v>0.7354709418837676</v>
       </c>
       <c r="K42" s="3">
-        <v>0.8056112224448898</v>
+        <v>0.7935871743486974</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2057,34 +2057,34 @@
         <v>52</v>
       </c>
       <c r="B43" s="2">
-        <v>1445.06</v>
+        <v>486.19</v>
       </c>
       <c r="C43" s="3">
-        <v>-0.05912412908768183</v>
+        <v>0.2243515487282799</v>
       </c>
       <c r="D43" s="3">
-        <v>0.5771543086172345</v>
+        <v>0.8957915831663327</v>
       </c>
       <c r="E43" s="3">
-        <v>0.2671612206181357</v>
+        <v>0.2673078928161818</v>
       </c>
       <c r="F43" s="3">
-        <v>0.8857715430861723</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="G43" s="3">
-        <v>0.2387086580122582</v>
+        <v>0.2531316047218928</v>
       </c>
       <c r="H43" s="3">
-        <v>0.935871743486974</v>
+        <v>0.8677354709418837</v>
       </c>
       <c r="I43" s="3">
-        <v>0.0241616645007805</v>
+        <v>0.01279033434017296</v>
       </c>
       <c r="J43" s="3">
-        <v>0.8156312625250501</v>
+        <v>0.5190380761523046</v>
       </c>
       <c r="K43" s="3">
-        <v>0.8036072144288577</v>
+        <v>0.7925851703406814</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2092,34 +2092,34 @@
         <v>53</v>
       </c>
       <c r="B44" s="2">
-        <v>648.6</v>
+        <v>649.03</v>
       </c>
       <c r="C44" s="3">
-        <v>0.01038130837442042</v>
+        <v>0.02030389502265617</v>
       </c>
       <c r="D44" s="3">
-        <v>0.7114228456913828</v>
+        <v>0.6813627254509018</v>
       </c>
       <c r="E44" s="3">
-        <v>0.2414235937190357</v>
+        <v>0.2486540074265509</v>
       </c>
       <c r="F44" s="3">
+        <v>0.8496993987975953</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.2165966859113744</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.7855711422845691</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.06452459446603998</v>
+      </c>
+      <c r="J44" s="3">
         <v>0.8517034068136273</v>
       </c>
-      <c r="G44" s="3">
-        <v>0.15352967829633</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0.7975951903807615</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.03179054875577525</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0.841683366733467</v>
-      </c>
       <c r="K44" s="3">
-        <v>0.8006012024048097</v>
+        <v>0.7920841683366734</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2127,34 +2127,34 @@
         <v>54</v>
       </c>
       <c r="B45" s="2">
-        <v>105.665</v>
+        <v>256.25</v>
       </c>
       <c r="C45" s="3">
-        <v>0.3697883356579759</v>
+        <v>-0.01548446040672313</v>
       </c>
       <c r="D45" s="3">
-        <v>0.9559118236472947</v>
+        <v>0.6032064128256514</v>
       </c>
       <c r="E45" s="3">
-        <v>0.3069756112413604</v>
+        <v>0.2787245190748271</v>
       </c>
       <c r="F45" s="3">
-        <v>0.9178356713426854</v>
+        <v>0.8977955911823647</v>
       </c>
       <c r="G45" s="3">
-        <v>0.1222038855574254</v>
+        <v>0.2327244195852369</v>
       </c>
       <c r="H45" s="3">
-        <v>0.7134268537074149</v>
+        <v>0.8176352705410822</v>
       </c>
       <c r="I45" s="3">
-        <v>-0.01084973595775329</v>
+        <v>0.06182977822364277</v>
       </c>
       <c r="J45" s="3">
-        <v>0.5971943887775552</v>
+        <v>0.841683366733467</v>
       </c>
       <c r="K45" s="3">
-        <v>0.7960921843687375</v>
+        <v>0.7900801603206413</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2162,34 +2162,34 @@
         <v>55</v>
       </c>
       <c r="B46" s="2">
-        <v>155.58</v>
+        <v>2179.25</v>
       </c>
       <c r="C46" s="3">
-        <v>-0.007746003528442347</v>
+        <v>-0.1048764057866244</v>
       </c>
       <c r="D46" s="3">
-        <v>0.6713426853707415</v>
+        <v>0.4709418837675351</v>
       </c>
       <c r="E46" s="3">
-        <v>0.1628659640798606</v>
+        <v>0.2202394284178462</v>
       </c>
       <c r="F46" s="3">
-        <v>0.7354709418837676</v>
+        <v>0.8156312625250501</v>
       </c>
       <c r="G46" s="3">
-        <v>0.2092986850344396</v>
+        <v>0.2932006456360225</v>
       </c>
       <c r="H46" s="3">
-        <v>0.8997995991983969</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="I46" s="3">
-        <v>0.0374697824335215</v>
+        <v>0.1143866718484732</v>
       </c>
       <c r="J46" s="3">
-        <v>0.8697394789579158</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="K46" s="3">
-        <v>0.7940881763527055</v>
+        <v>0.7895791583166333</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2197,34 +2197,34 @@
         <v>56</v>
       </c>
       <c r="B47" s="2">
-        <v>842.65</v>
+        <v>127.56</v>
       </c>
       <c r="C47" s="3">
-        <v>0.2173551427779317</v>
+        <v>0.6312708848327357</v>
       </c>
       <c r="D47" s="3">
-        <v>0.8937875751503006</v>
+        <v>0.9919839679358717</v>
       </c>
       <c r="E47" s="3">
-        <v>0.2884588655001468</v>
+        <v>0.218530140853143</v>
       </c>
       <c r="F47" s="3">
-        <v>0.9038076152304609</v>
+        <v>0.8136272545090181</v>
       </c>
       <c r="G47" s="3">
-        <v>0.1396003223647364</v>
+        <v>0.1289734448735968</v>
       </c>
       <c r="H47" s="3">
-        <v>0.7595190380761524</v>
+        <v>0.5110220440881763</v>
       </c>
       <c r="I47" s="3">
-        <v>-0.01044953149092642</v>
+        <v>0.06131957733588478</v>
       </c>
       <c r="J47" s="3">
-        <v>0.5991983967935872</v>
+        <v>0.8376753507014029</v>
       </c>
       <c r="K47" s="3">
-        <v>0.7890781563126252</v>
+        <v>0.7885771543086173</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2232,34 +2232,34 @@
         <v>57</v>
       </c>
       <c r="B48" s="2">
-        <v>46.165</v>
+        <v>97.95</v>
       </c>
       <c r="C48" s="3">
-        <v>-0.2832205594219194</v>
+        <v>0.05359286461089674</v>
       </c>
       <c r="D48" s="3">
-        <v>0.2164328657314629</v>
+        <v>0.7314629258517035</v>
       </c>
       <c r="E48" s="3">
-        <v>0.7060204766210658</v>
+        <v>0.2324645894489958</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>0.8316633266533066</v>
       </c>
       <c r="G48" s="3">
-        <v>0.3283669801866356</v>
+        <v>0.2730699246165844</v>
       </c>
       <c r="H48" s="3">
-        <v>0.9859719438877755</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="I48" s="3">
-        <v>0.06753365274925849</v>
+        <v>0.03420969274627828</v>
       </c>
       <c r="J48" s="3">
-        <v>0.9498997995991983</v>
+        <v>0.6633266533066133</v>
       </c>
       <c r="K48" s="3">
-        <v>0.7880761523046093</v>
+        <v>0.779058116232465</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2267,34 +2267,34 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>256.405</v>
+        <v>123.37</v>
       </c>
       <c r="C49" s="3">
-        <v>-0.07078953133676946</v>
+        <v>0.2345666657993912</v>
       </c>
       <c r="D49" s="3">
-        <v>0.5551102204408818</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="E49" s="3">
-        <v>0.2446627771992846</v>
+        <v>0.2515153205885785</v>
       </c>
       <c r="F49" s="3">
-        <v>0.8617234468937877</v>
+        <v>0.8657314629258518</v>
       </c>
       <c r="G49" s="3">
-        <v>0.1595303396205048</v>
+        <v>0.1661033225957684</v>
       </c>
       <c r="H49" s="3">
-        <v>0.811623246492986</v>
+        <v>0.6412825651302606</v>
       </c>
       <c r="I49" s="3">
-        <v>0.05337413250115852</v>
+        <v>0.03738522081329254</v>
       </c>
       <c r="J49" s="3">
-        <v>0.9238476953907816</v>
+        <v>0.6953907815631263</v>
       </c>
       <c r="K49" s="3">
-        <v>0.7880761523046093</v>
+        <v>0.7755511022044089</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2302,34 +2302,34 @@
         <v>59</v>
       </c>
       <c r="B50" s="2">
-        <v>106.77</v>
+        <v>193.87</v>
       </c>
       <c r="C50" s="3">
-        <v>-0.02631367934643758</v>
+        <v>0.191170335453277</v>
       </c>
       <c r="D50" s="3">
-        <v>0.6412825651302606</v>
+        <v>0.8717434869739479</v>
       </c>
       <c r="E50" s="3">
-        <v>0.3360558525847943</v>
+        <v>0.155129473169918</v>
       </c>
       <c r="F50" s="3">
-        <v>0.9378757515030059</v>
+        <v>0.7094188376753507</v>
       </c>
       <c r="G50" s="3">
-        <v>0.1722288512202159</v>
+        <v>0.2419268667979466</v>
       </c>
       <c r="H50" s="3">
-        <v>0.8476953907815631</v>
+        <v>0.8396793587174349</v>
       </c>
       <c r="I50" s="3">
-        <v>0.008498309995171427</v>
+        <v>0.03607310816588294</v>
       </c>
       <c r="J50" s="3">
-        <v>0.7254509018036072</v>
+        <v>0.6773547094188378</v>
       </c>
       <c r="K50" s="3">
-        <v>0.7880761523046091</v>
+        <v>0.7745490981963928</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2337,34 +2337,34 @@
         <v>60</v>
       </c>
       <c r="B51" s="2">
-        <v>176.47</v>
+        <v>46.12</v>
       </c>
       <c r="C51" s="3">
-        <v>0.4854561097901595</v>
+        <v>-0.2144572567321286</v>
       </c>
       <c r="D51" s="3">
-        <v>0.9679358717434871</v>
+        <v>0.2865731462925852</v>
       </c>
       <c r="E51" s="3">
-        <v>0.2491250279777207</v>
+        <v>0.6588674956208342</v>
       </c>
       <c r="F51" s="3">
-        <v>0.8697394789579158</v>
+        <v>0.9979959919839679</v>
       </c>
       <c r="G51" s="3">
-        <v>0.1139568160566413</v>
+        <v>0.3071339698951064</v>
       </c>
       <c r="H51" s="3">
-        <v>0.687374749498998</v>
+        <v>0.9258517034068136</v>
       </c>
       <c r="I51" s="3">
-        <v>-0.007476212052559994</v>
+        <v>0.07230876540339448</v>
       </c>
       <c r="J51" s="3">
-        <v>0.6172344689378757</v>
+        <v>0.8817635270541082</v>
       </c>
       <c r="K51" s="3">
-        <v>0.7855711422845691</v>
+        <v>0.7730460921843687</v>
       </c>
     </row>
   </sheetData>
